--- a/backend/fms_core/static/submission_templates/Normalization_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_v4_4_0.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="472">
   <si>
     <t xml:space="preserve">Sample and Library Normalization Template</t>
   </si>
@@ -84,6 +84,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Version : 4.4.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">*</t>
   </si>
   <si>
@@ -165,7 +168,7 @@
     <t xml:space="preserve">Workflow Action</t>
   </si>
   <si>
-    <t xml:space="preserve">Normalization instructions</t>
+    <t xml:space="preserve">Normalization template instructions</t>
   </si>
   <si>
     <t xml:space="preserve">Normalization template will dilute source sample into a destination container coordinate to reach a given target concentration.</t>
@@ -1671,7 +1674,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1783,12 +1786,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2027,7 +2024,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2240,14 +2237,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2331,7 +2320,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.4"/>
@@ -2341,7 +2330,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="33.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="29.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.87"/>
@@ -2351,7 +2340,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="38.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="39.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="20.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="25" style="0" width="9.38"/>
   </cols>
   <sheetData>
@@ -2365,7 +2354,9 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2417,30 +2408,30 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
       <c r="K4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="7"/>
@@ -2448,19 +2439,19 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="2"/>
@@ -2471,76 +2462,76 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6273,250 +6264,250 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="50"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="50"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="50"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="50"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="50"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="50"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="50"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="50"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="50"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="50"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="50"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="50"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="50"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="50"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="50"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" s="50"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="50"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28" s="50"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="54" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="50"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="50"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="53" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="50"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="50"/>
     </row>
@@ -6542,7 +6533,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.87"/>
@@ -6555,3817 +6546,3817 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H64" s="3"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H68" s="3"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H69" s="3"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H70" s="3"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H71" s="3"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H74" s="3"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H75" s="3"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H76" s="3"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H79" s="3"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C98" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C99" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C100" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C101" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C102" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C103" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C104" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C105" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C106" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C107" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C108" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C109" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C110" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C111" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C112" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C113" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C114" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C115" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C116" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C117" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C118" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C119" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C120" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C121" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C122" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C123" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C124" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C125" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C126" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C127" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C128" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C129" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C130" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C131" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C132" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C133" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C134" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C135" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C136" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C137" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C138" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C139" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C140" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C141" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C142" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C143" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C144" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C145" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C146" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C147" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C148" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C149" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C150" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C151" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C152" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C153" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C154" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C155" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C156" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C157" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C158" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C159" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C160" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C161" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C162" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C166" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C167" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C168" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C169" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C170" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C171" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C173" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C174" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C175" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C176" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C177" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C178" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C179" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C180" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C181" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C182" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C183" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C184" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C185" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C186" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C187" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C188" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C189" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C190" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C191" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C192" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C193" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C194" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C195" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C196" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C197" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C198" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C199" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C200" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C201" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C202" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C203" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C204" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C205" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C206" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C207" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C208" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C209" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C210" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C211" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C212" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C213" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C214" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C215" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C216" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C217" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C218" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C219" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C220" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C221" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C222" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C223" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C224" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C225" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C226" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C227" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C228" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C229" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C230" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C231" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C232" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C233" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C234" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C235" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C236" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C237" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C238" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C239" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C240" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C241" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C242" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C243" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C244" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C245" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C246" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C247" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C248" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C249" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C250" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C251" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C252" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C253" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C254" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C255" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C256" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C257" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C258" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C259" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C260" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C261" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C262" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C263" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C264" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C265" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C266" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C267" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C268" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C269" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C270" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C271" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C272" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C273" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C274" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C275" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C276" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C277" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C278" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C279" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C280" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C281" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C282" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C283" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C284" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C285" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C286" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C287" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C288" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C289" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C290" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C291" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C292" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C293" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C294" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C295" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C296" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C297" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C298" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C299" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C300" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C301" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C302" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C303" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C304" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C305" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C306" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C307" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C308" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C309" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C310" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C311" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C312" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C313" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C314" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C315" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C316" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C317" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C318" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C319" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C320" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C321" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C322" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C323" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C324" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C325" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C326" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C327" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C328" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C329" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C330" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C331" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C332" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C333" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C334" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C335" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D335" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C336" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C337" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C338" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C339" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C340" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C341" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C342" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C343" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C344" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C345" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C346" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C347" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C348" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C349" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C350" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C351" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C352" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C353" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C354" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C355" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C356" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C357" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C358" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C359" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C360" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C361" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C362" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C363" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C364" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C365" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C366" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C367" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C368" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C369" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C370" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C371" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C372" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C373" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C374" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C375" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C376" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C377" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C378" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C379" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C380" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C381" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C382" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C383" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C384" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D384" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C385" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/backend/fms_core/static/submission_templates/Normalization_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_v4_4_0.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="T5" authorId="0">
@@ -2317,10 +2317,12 @@
   <dimension ref="A1:AM1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.4"/>
@@ -6264,7 +6266,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.65"/>
   </cols>
@@ -6533,7 +6535,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.87"/>

--- a/backend/fms_core/static/submission_templates/Normalization_v4_4_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Normalization_v4_4_0.xlsx
@@ -1669,10 +1669,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -2137,6 +2136,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2177,15 +2180,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2322,7 +2321,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="27.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.4"/>
@@ -2552,18 +2551,18 @@
       <c r="M6" s="24"/>
       <c r="N6" s="25"/>
       <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27" t="str">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28" t="str">
         <f aca="false">IFERROR(P6*R6/S6, "")</f>
         <v/>
       </c>
-      <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="30"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
@@ -2581,18 +2580,18 @@
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27" t="str">
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28" t="str">
         <f aca="false">IFERROR(P7*R7/S7, "")</f>
         <v/>
       </c>
-      <c r="U7" s="27"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
@@ -2610,18 +2609,18 @@
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
       <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27" t="str">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28" t="str">
         <f aca="false">IFERROR(P8*R8/S8, "")</f>
         <v/>
       </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
@@ -2639,18 +2638,18 @@
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27" t="str">
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28" t="str">
         <f aca="false">IFERROR(P9*R9/S9, "")</f>
         <v/>
       </c>
-      <c r="U9" s="27"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19"/>
@@ -2668,18 +2667,18 @@
       <c r="M10" s="24"/>
       <c r="N10" s="25"/>
       <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27" t="str">
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28" t="str">
         <f aca="false">IFERROR(P10*R10/S10, "")</f>
         <v/>
       </c>
-      <c r="U10" s="27"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19"/>
@@ -2697,18 +2696,18 @@
       <c r="M11" s="24"/>
       <c r="N11" s="25"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27" t="str">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28" t="str">
         <f aca="false">IFERROR(P11*R11/S11, "")</f>
         <v/>
       </c>
-      <c r="U11" s="27"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19"/>
@@ -2726,18 +2725,18 @@
       <c r="M12" s="24"/>
       <c r="N12" s="25"/>
       <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27" t="str">
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28" t="str">
         <f aca="false">IFERROR(P12*R12/S12, "")</f>
         <v/>
       </c>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19"/>
@@ -2755,18 +2754,18 @@
       <c r="M13" s="24"/>
       <c r="N13" s="25"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27" t="str">
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28" t="str">
         <f aca="false">IFERROR(P13*R13/S13, "")</f>
         <v/>
       </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="31"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19"/>
@@ -2784,18 +2783,18 @@
       <c r="M14" s="24"/>
       <c r="N14" s="25"/>
       <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27" t="str">
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28" t="str">
         <f aca="false">IFERROR(P14*R14/S14, "")</f>
         <v/>
       </c>
-      <c r="U14" s="27"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="30"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="19"/>
@@ -2813,18 +2812,18 @@
       <c r="M15" s="24"/>
       <c r="N15" s="25"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27" t="str">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28" t="str">
         <f aca="false">IFERROR(P15*R15/S15, "")</f>
         <v/>
       </c>
-      <c r="U15" s="27"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="30"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="19"/>
@@ -2842,18 +2841,18 @@
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
       <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27" t="str">
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28" t="str">
         <f aca="false">IFERROR(P16*R16/S16, "")</f>
         <v/>
       </c>
-      <c r="U16" s="27"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="31"/>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="19"/>
@@ -2871,18 +2870,18 @@
       <c r="M17" s="24"/>
       <c r="N17" s="25"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27" t="str">
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28" t="str">
         <f aca="false">IFERROR(P17*R17/S17, "")</f>
         <v/>
       </c>
-      <c r="U17" s="27"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="30"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="19"/>
@@ -2900,18 +2899,18 @@
       <c r="M18" s="24"/>
       <c r="N18" s="25"/>
       <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27" t="str">
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28" t="str">
         <f aca="false">IFERROR(P18*R18/S18, "")</f>
         <v/>
       </c>
-      <c r="U18" s="27"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="30"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="31"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="19"/>
@@ -2929,18 +2928,18 @@
       <c r="M19" s="24"/>
       <c r="N19" s="25"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27" t="str">
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28" t="str">
         <f aca="false">IFERROR(P19*R19/S19, "")</f>
         <v/>
       </c>
-      <c r="U19" s="27"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="30"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="31"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="19"/>
@@ -2958,18 +2957,18 @@
       <c r="M20" s="24"/>
       <c r="N20" s="25"/>
       <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27" t="str">
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28" t="str">
         <f aca="false">IFERROR(P20*R20/S20, "")</f>
         <v/>
       </c>
-      <c r="U20" s="27"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="30"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="31"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
@@ -2987,18 +2986,18 @@
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27" t="str">
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28" t="str">
         <f aca="false">IFERROR(P21*R21/S21, "")</f>
         <v/>
       </c>
-      <c r="U21" s="27"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="30"/>
+      <c r="X21" s="31"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
@@ -3016,18 +3015,18 @@
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27" t="str">
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28" t="str">
         <f aca="false">IFERROR(P22*R22/S22, "")</f>
         <v/>
       </c>
-      <c r="U22" s="27"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="30"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
@@ -3045,18 +3044,18 @@
       <c r="M23" s="24"/>
       <c r="N23" s="25"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27" t="str">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28" t="str">
         <f aca="false">IFERROR(P23*R23/S23, "")</f>
         <v/>
       </c>
-      <c r="U23" s="27"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="30"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="30"/>
+      <c r="X23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
@@ -3074,18 +3073,18 @@
       <c r="M24" s="24"/>
       <c r="N24" s="25"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27" t="str">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28" t="str">
         <f aca="false">IFERROR(P24*R24/S24, "")</f>
         <v/>
       </c>
-      <c r="U24" s="27"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="30"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="31"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="19"/>
@@ -3103,18 +3102,18 @@
       <c r="M25" s="24"/>
       <c r="N25" s="25"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27" t="str">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28" t="str">
         <f aca="false">IFERROR(P25*R25/S25, "")</f>
         <v/>
       </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="30"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="31"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="19"/>
@@ -3132,18 +3131,18 @@
       <c r="M26" s="24"/>
       <c r="N26" s="25"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27" t="str">
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28" t="str">
         <f aca="false">IFERROR(P26*R26/S26, "")</f>
         <v/>
       </c>
-      <c r="U26" s="27"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="30"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="31"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="19"/>
@@ -3161,18 +3160,18 @@
       <c r="M27" s="24"/>
       <c r="N27" s="25"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27" t="str">
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28" t="str">
         <f aca="false">IFERROR(P27*R27/S27, "")</f>
         <v/>
       </c>
-      <c r="U27" s="27"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="30"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19"/>
@@ -3190,18 +3189,18 @@
       <c r="M28" s="24"/>
       <c r="N28" s="25"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27" t="str">
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28" t="str">
         <f aca="false">IFERROR(P28*R28/S28, "")</f>
         <v/>
       </c>
-      <c r="U28" s="27"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="30"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="19"/>
@@ -3219,18 +3218,18 @@
       <c r="M29" s="24"/>
       <c r="N29" s="25"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27" t="str">
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28" t="str">
         <f aca="false">IFERROR(P29*R29/S29, "")</f>
         <v/>
       </c>
-      <c r="U29" s="27"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="30"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="31"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19"/>
@@ -3248,18 +3247,18 @@
       <c r="M30" s="24"/>
       <c r="N30" s="25"/>
       <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27" t="str">
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28" t="str">
         <f aca="false">IFERROR(P30*R30/S30, "")</f>
         <v/>
       </c>
-      <c r="U30" s="27"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="30"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="19"/>
@@ -3277,18 +3276,18 @@
       <c r="M31" s="24"/>
       <c r="N31" s="25"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27" t="str">
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28" t="str">
         <f aca="false">IFERROR(P31*R31/S31, "")</f>
         <v/>
       </c>
-      <c r="U31" s="27"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="30"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="30"/>
+      <c r="X31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="19"/>
@@ -3306,18 +3305,18 @@
       <c r="M32" s="24"/>
       <c r="N32" s="25"/>
       <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27" t="str">
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28" t="str">
         <f aca="false">IFERROR(P32*R32/S32, "")</f>
         <v/>
       </c>
-      <c r="U32" s="27"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="30"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="31"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="19"/>
@@ -3335,18 +3334,18 @@
       <c r="M33" s="24"/>
       <c r="N33" s="25"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27" t="str">
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28" t="str">
         <f aca="false">IFERROR(P33*R33/S33, "")</f>
         <v/>
       </c>
-      <c r="U33" s="27"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="30"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="30"/>
+      <c r="X33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="19"/>
@@ -3364,18 +3363,18 @@
       <c r="M34" s="24"/>
       <c r="N34" s="25"/>
       <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27" t="str">
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28" t="str">
         <f aca="false">IFERROR(P34*R34/S34, "")</f>
         <v/>
       </c>
-      <c r="U34" s="27"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="30"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="30"/>
+      <c r="X34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="19"/>
@@ -3393,18 +3392,18 @@
       <c r="M35" s="24"/>
       <c r="N35" s="25"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27" t="str">
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28" t="str">
         <f aca="false">IFERROR(P35*R35/S35, "")</f>
         <v/>
       </c>
-      <c r="U35" s="27"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="30"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="30"/>
+      <c r="X35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="19"/>
@@ -3422,18 +3421,18 @@
       <c r="M36" s="24"/>
       <c r="N36" s="25"/>
       <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27" t="str">
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28" t="str">
         <f aca="false">IFERROR(P36*R36/S36, "")</f>
         <v/>
       </c>
-      <c r="U36" s="27"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="29"/>
-      <c r="X36" s="30"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19"/>
@@ -3451,18 +3450,18 @@
       <c r="M37" s="24"/>
       <c r="N37" s="25"/>
       <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27" t="str">
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28" t="str">
         <f aca="false">IFERROR(P37*R37/S37, "")</f>
         <v/>
       </c>
-      <c r="U37" s="27"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="30"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="30"/>
+      <c r="X37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="19"/>
@@ -3480,18 +3479,18 @@
       <c r="M38" s="24"/>
       <c r="N38" s="25"/>
       <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27" t="str">
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28" t="str">
         <f aca="false">IFERROR(P38*R38/S38, "")</f>
         <v/>
       </c>
-      <c r="U38" s="27"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="30"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="30"/>
+      <c r="X38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="19"/>
@@ -3509,18 +3508,18 @@
       <c r="M39" s="24"/>
       <c r="N39" s="25"/>
       <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27" t="str">
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28" t="str">
         <f aca="false">IFERROR(P39*R39/S39, "")</f>
         <v/>
       </c>
-      <c r="U39" s="27"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="30"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="31"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="19"/>
@@ -3538,18 +3537,18 @@
       <c r="M40" s="24"/>
       <c r="N40" s="25"/>
       <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27" t="str">
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28" t="str">
         <f aca="false">IFERROR(P40*R40/S40, "")</f>
         <v/>
       </c>
-      <c r="U40" s="27"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="30"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="19"/>
@@ -3567,18 +3566,18 @@
       <c r="M41" s="24"/>
       <c r="N41" s="25"/>
       <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27" t="str">
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28" t="str">
         <f aca="false">IFERROR(P41*R41/S41, "")</f>
         <v/>
       </c>
-      <c r="U41" s="27"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="30"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="19"/>
@@ -3596,18 +3595,18 @@
       <c r="M42" s="24"/>
       <c r="N42" s="25"/>
       <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27" t="str">
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28" t="str">
         <f aca="false">IFERROR(P42*R42/S42, "")</f>
         <v/>
       </c>
-      <c r="U42" s="27"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="30"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="31"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="19"/>
@@ -3625,18 +3624,18 @@
       <c r="M43" s="24"/>
       <c r="N43" s="25"/>
       <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27" t="str">
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28" t="str">
         <f aca="false">IFERROR(P43*R43/S43, "")</f>
         <v/>
       </c>
-      <c r="U43" s="27"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="30"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="31"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="19"/>
@@ -3654,18 +3653,18 @@
       <c r="M44" s="24"/>
       <c r="N44" s="25"/>
       <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27" t="str">
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28" t="str">
         <f aca="false">IFERROR(P44*R44/S44, "")</f>
         <v/>
       </c>
-      <c r="U44" s="27"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="30"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="31"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="19"/>
@@ -3683,18 +3682,18 @@
       <c r="M45" s="24"/>
       <c r="N45" s="25"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27" t="str">
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28" t="str">
         <f aca="false">IFERROR(P45*R45/S45, "")</f>
         <v/>
       </c>
-      <c r="U45" s="27"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="30"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="31"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="19"/>
@@ -3712,18 +3711,18 @@
       <c r="M46" s="24"/>
       <c r="N46" s="25"/>
       <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27" t="str">
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28" t="str">
         <f aca="false">IFERROR(P46*R46/S46, "")</f>
         <v/>
       </c>
-      <c r="U46" s="27"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="30"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="31"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="19"/>
@@ -3741,18 +3740,18 @@
       <c r="M47" s="24"/>
       <c r="N47" s="25"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27" t="str">
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28" t="str">
         <f aca="false">IFERROR(P47*R47/S47, "")</f>
         <v/>
       </c>
-      <c r="U47" s="27"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="30"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="31"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19"/>
@@ -3770,18 +3769,18 @@
       <c r="M48" s="24"/>
       <c r="N48" s="25"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27" t="str">
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28" t="str">
         <f aca="false">IFERROR(P48*R48/S48, "")</f>
         <v/>
       </c>
-      <c r="U48" s="27"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="30"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="31"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="19"/>
@@ -3799,18 +3798,18 @@
       <c r="M49" s="24"/>
       <c r="N49" s="25"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27" t="str">
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28" t="str">
         <f aca="false">IFERROR(P49*R49/S49, "")</f>
         <v/>
       </c>
-      <c r="U49" s="27"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="30"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="31"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="19"/>
@@ -3828,18 +3827,18 @@
       <c r="M50" s="24"/>
       <c r="N50" s="25"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27" t="str">
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28" t="str">
         <f aca="false">IFERROR(P50*R50/S50, "")</f>
         <v/>
       </c>
-      <c r="U50" s="27"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="30"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="31"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="19"/>
@@ -3857,18 +3856,18 @@
       <c r="M51" s="24"/>
       <c r="N51" s="25"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27" t="str">
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28" t="str">
         <f aca="false">IFERROR(P51*R51/S51, "")</f>
         <v/>
       </c>
-      <c r="U51" s="27"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="30"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="19"/>
@@ -3886,18 +3885,18 @@
       <c r="M52" s="24"/>
       <c r="N52" s="25"/>
       <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27" t="str">
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28" t="str">
         <f aca="false">IFERROR(P52*R52/S52, "")</f>
         <v/>
       </c>
-      <c r="U52" s="27"/>
-      <c r="V52" s="28"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="30"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="31"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="19"/>
@@ -3915,18 +3914,18 @@
       <c r="M53" s="24"/>
       <c r="N53" s="25"/>
       <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27" t="str">
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28" t="str">
         <f aca="false">IFERROR(P53*R53/S53, "")</f>
         <v/>
       </c>
-      <c r="U53" s="27"/>
-      <c r="V53" s="28"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="30"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="31"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="19"/>
@@ -3944,18 +3943,18 @@
       <c r="M54" s="24"/>
       <c r="N54" s="25"/>
       <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27" t="str">
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28" t="str">
         <f aca="false">IFERROR(P54*R54/S54, "")</f>
         <v/>
       </c>
-      <c r="U54" s="27"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="30"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="19"/>
@@ -3973,18 +3972,18 @@
       <c r="M55" s="24"/>
       <c r="N55" s="25"/>
       <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27" t="str">
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28" t="str">
         <f aca="false">IFERROR(P55*R55/S55, "")</f>
         <v/>
       </c>
-      <c r="U55" s="27"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="30"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="31"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="19"/>
@@ -4002,18 +4001,18 @@
       <c r="M56" s="24"/>
       <c r="N56" s="25"/>
       <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27" t="str">
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28" t="str">
         <f aca="false">IFERROR(P56*R56/S56, "")</f>
         <v/>
       </c>
-      <c r="U56" s="27"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="30"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="31"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="19"/>
@@ -4031,18 +4030,18 @@
       <c r="M57" s="24"/>
       <c r="N57" s="25"/>
       <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27" t="str">
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="28"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28" t="str">
         <f aca="false">IFERROR(P57*R57/S57, "")</f>
         <v/>
       </c>
-      <c r="U57" s="27"/>
-      <c r="V57" s="28"/>
-      <c r="W57" s="29"/>
-      <c r="X57" s="30"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="31"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19"/>
@@ -4060,18 +4059,18 @@
       <c r="M58" s="24"/>
       <c r="N58" s="25"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27" t="str">
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28" t="str">
         <f aca="false">IFERROR(P58*R58/S58, "")</f>
         <v/>
       </c>
-      <c r="U58" s="27"/>
-      <c r="V58" s="28"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="30"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="30"/>
+      <c r="X58" s="31"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="19"/>
@@ -4089,18 +4088,18 @@
       <c r="M59" s="24"/>
       <c r="N59" s="25"/>
       <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27" t="str">
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28" t="str">
         <f aca="false">IFERROR(P59*R59/S59, "")</f>
         <v/>
       </c>
-      <c r="U59" s="27"/>
-      <c r="V59" s="28"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="30"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="31"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19"/>
@@ -4118,18 +4117,18 @@
       <c r="M60" s="24"/>
       <c r="N60" s="25"/>
       <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27" t="str">
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28" t="str">
         <f aca="false">IFERROR(P60*R60/S60, "")</f>
         <v/>
       </c>
-      <c r="U60" s="27"/>
-      <c r="V60" s="28"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="30"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="30"/>
+      <c r="X60" s="31"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="19"/>
@@ -4147,18 +4146,18 @@
       <c r="M61" s="24"/>
       <c r="N61" s="25"/>
       <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27" t="str">
+      <c r="P61" s="27"/>
+      <c r="Q61" s="27"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28" t="str">
         <f aca="false">IFERROR(P61*R61/S61, "")</f>
         <v/>
       </c>
-      <c r="U61" s="27"/>
-      <c r="V61" s="28"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="30"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="31"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="19"/>
@@ -4176,18 +4175,18 @@
       <c r="M62" s="24"/>
       <c r="N62" s="25"/>
       <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27" t="str">
+      <c r="P62" s="27"/>
+      <c r="Q62" s="27"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28" t="str">
         <f aca="false">IFERROR(P62*R62/S62, "")</f>
         <v/>
       </c>
-      <c r="U62" s="27"/>
-      <c r="V62" s="28"/>
-      <c r="W62" s="29"/>
-      <c r="X62" s="30"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="31"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="19"/>
@@ -4205,18 +4204,18 @@
       <c r="M63" s="24"/>
       <c r="N63" s="25"/>
       <c r="O63" s="26"/>
-      <c r="P63" s="26"/>
-      <c r="Q63" s="26"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27" t="str">
+      <c r="P63" s="27"/>
+      <c r="Q63" s="27"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28" t="str">
         <f aca="false">IFERROR(P63*R63/S63, "")</f>
         <v/>
       </c>
-      <c r="U63" s="27"/>
-      <c r="V63" s="28"/>
-      <c r="W63" s="29"/>
-      <c r="X63" s="30"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="31"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19"/>
@@ -4234,18 +4233,18 @@
       <c r="M64" s="24"/>
       <c r="N64" s="25"/>
       <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="26"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27" t="str">
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28" t="str">
         <f aca="false">IFERROR(P64*R64/S64, "")</f>
         <v/>
       </c>
-      <c r="U64" s="27"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="29"/>
-      <c r="X64" s="30"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="31"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="19"/>
@@ -4263,18 +4262,18 @@
       <c r="M65" s="24"/>
       <c r="N65" s="25"/>
       <c r="O65" s="26"/>
-      <c r="P65" s="26"/>
-      <c r="Q65" s="26"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27" t="str">
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28" t="str">
         <f aca="false">IFERROR(P65*R65/S65, "")</f>
         <v/>
       </c>
-      <c r="U65" s="27"/>
-      <c r="V65" s="28"/>
-      <c r="W65" s="29"/>
-      <c r="X65" s="30"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="30"/>
+      <c r="X65" s="31"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="19"/>
@@ -4292,18 +4291,18 @@
       <c r="M66" s="24"/>
       <c r="N66" s="25"/>
       <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27" t="str">
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28" t="str">
         <f aca="false">IFERROR(P66*R66/S66, "")</f>
         <v/>
       </c>
-      <c r="U66" s="27"/>
-      <c r="V66" s="28"/>
-      <c r="W66" s="29"/>
-      <c r="X66" s="30"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="31"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="19"/>
@@ -4321,18 +4320,18 @@
       <c r="M67" s="24"/>
       <c r="N67" s="25"/>
       <c r="O67" s="26"/>
-      <c r="P67" s="26"/>
-      <c r="Q67" s="26"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27" t="str">
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28" t="str">
         <f aca="false">IFERROR(P67*R67/S67, "")</f>
         <v/>
       </c>
-      <c r="U67" s="27"/>
-      <c r="V67" s="28"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="30"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="31"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="19"/>
@@ -4350,18 +4349,18 @@
       <c r="M68" s="24"/>
       <c r="N68" s="25"/>
       <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="26"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27" t="str">
+      <c r="P68" s="27"/>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28" t="str">
         <f aca="false">IFERROR(P68*R68/S68, "")</f>
         <v/>
       </c>
-      <c r="U68" s="27"/>
-      <c r="V68" s="28"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="30"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="31"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="19"/>
@@ -4379,18 +4378,18 @@
       <c r="M69" s="24"/>
       <c r="N69" s="25"/>
       <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27" t="str">
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28" t="str">
         <f aca="false">IFERROR(P69*R69/S69, "")</f>
         <v/>
       </c>
-      <c r="U69" s="27"/>
-      <c r="V69" s="28"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="30"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="30"/>
+      <c r="X69" s="31"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="19"/>
@@ -4408,18 +4407,18 @@
       <c r="M70" s="24"/>
       <c r="N70" s="25"/>
       <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27" t="str">
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28" t="str">
         <f aca="false">IFERROR(P70*R70/S70, "")</f>
         <v/>
       </c>
-      <c r="U70" s="27"/>
-      <c r="V70" s="28"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="30"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="31"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="19"/>
@@ -4437,18 +4436,18 @@
       <c r="M71" s="24"/>
       <c r="N71" s="25"/>
       <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27" t="str">
+      <c r="P71" s="27"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28" t="str">
         <f aca="false">IFERROR(P71*R71/S71, "")</f>
         <v/>
       </c>
-      <c r="U71" s="27"/>
-      <c r="V71" s="28"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="30"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="31"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="19"/>
@@ -4466,18 +4465,18 @@
       <c r="M72" s="24"/>
       <c r="N72" s="25"/>
       <c r="O72" s="26"/>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27" t="str">
+      <c r="P72" s="27"/>
+      <c r="Q72" s="27"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28" t="str">
         <f aca="false">IFERROR(P72*R72/S72, "")</f>
         <v/>
       </c>
-      <c r="U72" s="27"/>
-      <c r="V72" s="28"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="30"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="31"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="19"/>
@@ -4495,18 +4494,18 @@
       <c r="M73" s="24"/>
       <c r="N73" s="25"/>
       <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="27"/>
-      <c r="S73" s="27"/>
-      <c r="T73" s="27" t="str">
+      <c r="P73" s="27"/>
+      <c r="Q73" s="27"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28" t="str">
         <f aca="false">IFERROR(P73*R73/S73, "")</f>
         <v/>
       </c>
-      <c r="U73" s="27"/>
-      <c r="V73" s="28"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="30"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="31"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="19"/>
@@ -4524,18 +4523,18 @@
       <c r="M74" s="24"/>
       <c r="N74" s="25"/>
       <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27" t="str">
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28" t="str">
         <f aca="false">IFERROR(P74*R74/S74, "")</f>
         <v/>
       </c>
-      <c r="U74" s="27"/>
-      <c r="V74" s="28"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="30"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="31"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="19"/>
@@ -4553,18 +4552,18 @@
       <c r="M75" s="24"/>
       <c r="N75" s="25"/>
       <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="27"/>
-      <c r="T75" s="27" t="str">
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28" t="str">
         <f aca="false">IFERROR(P75*R75/S75, "")</f>
         <v/>
       </c>
-      <c r="U75" s="27"/>
-      <c r="V75" s="28"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="30"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="31"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="19"/>
@@ -4582,18 +4581,18 @@
       <c r="M76" s="24"/>
       <c r="N76" s="25"/>
       <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="27"/>
-      <c r="T76" s="27" t="str">
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28" t="str">
         <f aca="false">IFERROR(P76*R76/S76, "")</f>
         <v/>
       </c>
-      <c r="U76" s="27"/>
-      <c r="V76" s="28"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="30"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="31"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="19"/>
@@ -4611,18 +4610,18 @@
       <c r="M77" s="24"/>
       <c r="N77" s="25"/>
       <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="27" t="str">
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="28"/>
+      <c r="S77" s="28"/>
+      <c r="T77" s="28" t="str">
         <f aca="false">IFERROR(P77*R77/S77, "")</f>
         <v/>
       </c>
-      <c r="U77" s="27"/>
-      <c r="V77" s="28"/>
-      <c r="W77" s="29"/>
-      <c r="X77" s="30"/>
+      <c r="U77" s="28"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="31"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="19"/>
@@ -4640,18 +4639,18 @@
       <c r="M78" s="24"/>
       <c r="N78" s="25"/>
       <c r="O78" s="26"/>
-      <c r="P78" s="26"/>
-      <c r="Q78" s="26"/>
-      <c r="R78" s="27"/>
-      <c r="S78" s="27"/>
-      <c r="T78" s="27" t="str">
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="28" t="str">
         <f aca="false">IFERROR(P78*R78/S78, "")</f>
         <v/>
       </c>
-      <c r="U78" s="27"/>
-      <c r="V78" s="28"/>
-      <c r="W78" s="29"/>
-      <c r="X78" s="30"/>
+      <c r="U78" s="28"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="31"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="19"/>
@@ -4669,18 +4668,18 @@
       <c r="M79" s="24"/>
       <c r="N79" s="25"/>
       <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="27"/>
-      <c r="S79" s="27"/>
-      <c r="T79" s="27" t="str">
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="28"/>
+      <c r="S79" s="28"/>
+      <c r="T79" s="28" t="str">
         <f aca="false">IFERROR(P79*R79/S79, "")</f>
         <v/>
       </c>
-      <c r="U79" s="27"/>
-      <c r="V79" s="28"/>
-      <c r="W79" s="29"/>
-      <c r="X79" s="30"/>
+      <c r="U79" s="28"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="19"/>
@@ -4698,18 +4697,18 @@
       <c r="M80" s="24"/>
       <c r="N80" s="25"/>
       <c r="O80" s="26"/>
-      <c r="P80" s="26"/>
-      <c r="Q80" s="26"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="27" t="str">
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28" t="str">
         <f aca="false">IFERROR(P80*R80/S80, "")</f>
         <v/>
       </c>
-      <c r="U80" s="27"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="30"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="31"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="19"/>
@@ -4727,18 +4726,18 @@
       <c r="M81" s="24"/>
       <c r="N81" s="25"/>
       <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27" t="str">
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28" t="str">
         <f aca="false">IFERROR(P81*R81/S81, "")</f>
         <v/>
       </c>
-      <c r="U81" s="27"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="29"/>
-      <c r="X81" s="30"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="19"/>
@@ -4756,18 +4755,18 @@
       <c r="M82" s="24"/>
       <c r="N82" s="25"/>
       <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27" t="str">
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="28" t="str">
         <f aca="false">IFERROR(P82*R82/S82, "")</f>
         <v/>
       </c>
-      <c r="U82" s="27"/>
-      <c r="V82" s="28"/>
-      <c r="W82" s="29"/>
-      <c r="X82" s="30"/>
+      <c r="U82" s="28"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="31"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="19"/>
@@ -4785,18 +4784,18 @@
       <c r="M83" s="24"/>
       <c r="N83" s="25"/>
       <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27" t="str">
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="28"/>
+      <c r="S83" s="28"/>
+      <c r="T83" s="28" t="str">
         <f aca="false">IFERROR(P83*R83/S83, "")</f>
         <v/>
       </c>
-      <c r="U83" s="27"/>
-      <c r="V83" s="28"/>
-      <c r="W83" s="29"/>
-      <c r="X83" s="30"/>
+      <c r="U83" s="28"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="19"/>
@@ -4814,18 +4813,18 @@
       <c r="M84" s="24"/>
       <c r="N84" s="25"/>
       <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27" t="str">
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="28" t="str">
         <f aca="false">IFERROR(P84*R84/S84, "")</f>
         <v/>
       </c>
-      <c r="U84" s="27"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="29"/>
-      <c r="X84" s="30"/>
+      <c r="U84" s="28"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="19"/>
@@ -4843,18 +4842,18 @@
       <c r="M85" s="24"/>
       <c r="N85" s="25"/>
       <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="27"/>
-      <c r="T85" s="27" t="str">
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="28"/>
+      <c r="S85" s="28"/>
+      <c r="T85" s="28" t="str">
         <f aca="false">IFERROR(P85*R85/S85, "")</f>
         <v/>
       </c>
-      <c r="U85" s="27"/>
-      <c r="V85" s="28"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="30"/>
+      <c r="U85" s="28"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="19"/>
@@ -4872,18 +4871,18 @@
       <c r="M86" s="24"/>
       <c r="N86" s="25"/>
       <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="27"/>
-      <c r="T86" s="27" t="str">
+      <c r="P86" s="27"/>
+      <c r="Q86" s="27"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="28" t="str">
         <f aca="false">IFERROR(P86*R86/S86, "")</f>
         <v/>
       </c>
-      <c r="U86" s="27"/>
-      <c r="V86" s="28"/>
-      <c r="W86" s="29"/>
-      <c r="X86" s="30"/>
+      <c r="U86" s="28"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="19"/>
@@ -4901,18 +4900,18 @@
       <c r="M87" s="24"/>
       <c r="N87" s="25"/>
       <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="27" t="str">
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="28"/>
+      <c r="T87" s="28" t="str">
         <f aca="false">IFERROR(P87*R87/S87, "")</f>
         <v/>
       </c>
-      <c r="U87" s="27"/>
-      <c r="V87" s="28"/>
-      <c r="W87" s="29"/>
-      <c r="X87" s="30"/>
+      <c r="U87" s="28"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="30"/>
+      <c r="X87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="19"/>
@@ -4930,18 +4929,18 @@
       <c r="M88" s="24"/>
       <c r="N88" s="25"/>
       <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="27"/>
-      <c r="T88" s="27" t="str">
+      <c r="P88" s="27"/>
+      <c r="Q88" s="27"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28" t="str">
         <f aca="false">IFERROR(P88*R88/S88, "")</f>
         <v/>
       </c>
-      <c r="U88" s="27"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="29"/>
-      <c r="X88" s="30"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="19"/>
@@ -4959,18 +4958,18 @@
       <c r="M89" s="24"/>
       <c r="N89" s="25"/>
       <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="27"/>
-      <c r="T89" s="27" t="str">
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28" t="str">
         <f aca="false">IFERROR(P89*R89/S89, "")</f>
         <v/>
       </c>
-      <c r="U89" s="27"/>
-      <c r="V89" s="28"/>
-      <c r="W89" s="29"/>
-      <c r="X89" s="30"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="19"/>
@@ -4988,18 +4987,18 @@
       <c r="M90" s="24"/>
       <c r="N90" s="25"/>
       <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="27"/>
-      <c r="T90" s="27" t="str">
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="28"/>
+      <c r="S90" s="28"/>
+      <c r="T90" s="28" t="str">
         <f aca="false">IFERROR(P90*R90/S90, "")</f>
         <v/>
       </c>
-      <c r="U90" s="27"/>
-      <c r="V90" s="28"/>
-      <c r="W90" s="29"/>
-      <c r="X90" s="30"/>
+      <c r="U90" s="28"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="19"/>
@@ -5017,18 +5016,18 @@
       <c r="M91" s="24"/>
       <c r="N91" s="25"/>
       <c r="O91" s="26"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="27"/>
-      <c r="T91" s="27" t="str">
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="28"/>
+      <c r="S91" s="28"/>
+      <c r="T91" s="28" t="str">
         <f aca="false">IFERROR(P91*R91/S91, "")</f>
         <v/>
       </c>
-      <c r="U91" s="27"/>
-      <c r="V91" s="28"/>
-      <c r="W91" s="29"/>
-      <c r="X91" s="30"/>
+      <c r="U91" s="28"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="19"/>
@@ -5046,18 +5045,18 @@
       <c r="M92" s="24"/>
       <c r="N92" s="25"/>
       <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27" t="str">
+      <c r="P92" s="27"/>
+      <c r="Q92" s="27"/>
+      <c r="R92" s="28"/>
+      <c r="S92" s="28"/>
+      <c r="T92" s="28" t="str">
         <f aca="false">IFERROR(P92*R92/S92, "")</f>
         <v/>
       </c>
-      <c r="U92" s="27"/>
-      <c r="V92" s="28"/>
-      <c r="W92" s="29"/>
-      <c r="X92" s="30"/>
+      <c r="U92" s="28"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="19"/>
@@ -5075,18 +5074,18 @@
       <c r="M93" s="24"/>
       <c r="N93" s="25"/>
       <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="27" t="str">
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="28"/>
+      <c r="S93" s="28"/>
+      <c r="T93" s="28" t="str">
         <f aca="false">IFERROR(P93*R93/S93, "")</f>
         <v/>
       </c>
-      <c r="U93" s="27"/>
-      <c r="V93" s="28"/>
-      <c r="W93" s="29"/>
-      <c r="X93" s="30"/>
+      <c r="U93" s="28"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="19"/>
@@ -5104,18 +5103,18 @@
       <c r="M94" s="24"/>
       <c r="N94" s="25"/>
       <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="27"/>
-      <c r="S94" s="27"/>
-      <c r="T94" s="27" t="str">
+      <c r="P94" s="27"/>
+      <c r="Q94" s="27"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="28"/>
+      <c r="T94" s="28" t="str">
         <f aca="false">IFERROR(P94*R94/S94, "")</f>
         <v/>
       </c>
-      <c r="U94" s="27"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="30"/>
+      <c r="U94" s="28"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="19"/>
@@ -5133,18 +5132,18 @@
       <c r="M95" s="24"/>
       <c r="N95" s="25"/>
       <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="27"/>
-      <c r="T95" s="27" t="str">
+      <c r="P95" s="27"/>
+      <c r="Q95" s="27"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="28" t="str">
         <f aca="false">IFERROR(P95*R95/S95, "")</f>
         <v/>
       </c>
-      <c r="U95" s="27"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="30"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="19"/>
@@ -5162,18 +5161,18 @@
       <c r="M96" s="24"/>
       <c r="N96" s="25"/>
       <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="27"/>
-      <c r="T96" s="27" t="str">
+      <c r="P96" s="27"/>
+      <c r="Q96" s="27"/>
+      <c r="R96" s="28"/>
+      <c r="S96" s="28"/>
+      <c r="T96" s="28" t="str">
         <f aca="false">IFERROR(P96*R96/S96, "")</f>
         <v/>
       </c>
-      <c r="U96" s="27"/>
-      <c r="V96" s="28"/>
-      <c r="W96" s="29"/>
-      <c r="X96" s="30"/>
+      <c r="U96" s="28"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="19"/>
@@ -5191,18 +5190,18 @@
       <c r="M97" s="24"/>
       <c r="N97" s="25"/>
       <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="27"/>
-      <c r="S97" s="27"/>
-      <c r="T97" s="27" t="str">
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
+      <c r="R97" s="28"/>
+      <c r="S97" s="28"/>
+      <c r="T97" s="28" t="str">
         <f aca="false">IFERROR(P97*R97/S97, "")</f>
         <v/>
       </c>
-      <c r="U97" s="27"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="29"/>
-      <c r="X97" s="30"/>
+      <c r="U97" s="28"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="30"/>
+      <c r="X97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="19"/>
@@ -5220,18 +5219,18 @@
       <c r="M98" s="24"/>
       <c r="N98" s="25"/>
       <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="27"/>
-      <c r="S98" s="27"/>
-      <c r="T98" s="27" t="str">
+      <c r="P98" s="27"/>
+      <c r="Q98" s="27"/>
+      <c r="R98" s="28"/>
+      <c r="S98" s="28"/>
+      <c r="T98" s="28" t="str">
         <f aca="false">IFERROR(P98*R98/S98, "")</f>
         <v/>
       </c>
-      <c r="U98" s="27"/>
-      <c r="V98" s="28"/>
-      <c r="W98" s="29"/>
-      <c r="X98" s="30"/>
+      <c r="U98" s="28"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="30"/>
+      <c r="X98" s="31"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="19"/>
@@ -5249,18 +5248,18 @@
       <c r="M99" s="24"/>
       <c r="N99" s="25"/>
       <c r="O99" s="26"/>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="27"/>
-      <c r="S99" s="27"/>
-      <c r="T99" s="27" t="str">
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="28"/>
+      <c r="S99" s="28"/>
+      <c r="T99" s="28" t="str">
         <f aca="false">IFERROR(P99*R99/S99, "")</f>
         <v/>
       </c>
-      <c r="U99" s="27"/>
-      <c r="V99" s="28"/>
-      <c r="W99" s="29"/>
-      <c r="X99" s="30"/>
+      <c r="U99" s="28"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="30"/>
+      <c r="X99" s="31"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19"/>
@@ -5278,44 +5277,44 @@
       <c r="M100" s="24"/>
       <c r="N100" s="25"/>
       <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="26"/>
-      <c r="R100" s="27"/>
-      <c r="S100" s="27"/>
-      <c r="T100" s="27" t="str">
+      <c r="P100" s="27"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="28"/>
+      <c r="S100" s="28"/>
+      <c r="T100" s="28" t="str">
         <f aca="false">IFERROR(P100*R100/S100, "")</f>
         <v/>
       </c>
-      <c r="U100" s="27"/>
-      <c r="V100" s="28"/>
-      <c r="W100" s="29"/>
-      <c r="X100" s="30"/>
+      <c r="U100" s="28"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="31"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="36"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="34"/>
-      <c r="P101" s="38"/>
-      <c r="Q101" s="38"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="39"/>
-      <c r="T101" s="40" t="str">
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="40"/>
+      <c r="S101" s="40"/>
+      <c r="T101" s="39" t="str">
         <f aca="false">IFERROR(P101*R101/S101, "")</f>
         <v/>
       </c>
-      <c r="U101" s="39"/>
+      <c r="U101" s="40"/>
       <c r="V101" s="41"/>
       <c r="W101" s="42"/>
       <c r="X101" s="43"/>
@@ -6266,7 +6265,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.65"/>
   </cols>
@@ -6535,7 +6534,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.87"/>
